--- a/data/index/corpus_a_index_clean_atu_metadata.xlsx
+++ b/data/index/corpus_a_index_clean_atu_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E72AC-2A8D-4E45-99F8-04AC2BEB8501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0C131-91C3-4F45-87A5-8267DA876663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
+    <workbookView xWindow="14720" yWindow="680" windowWidth="14680" windowHeight="18440" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="veneime13102025" sheetId="1" r:id="rId1"/>
@@ -3247,9 +3247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
   <dimension ref="A1:AJ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/index/corpus_a_index_clean_atu_metadata.xlsx
+++ b/data/index/corpus_a_index_clean_atu_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/data/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0C131-91C3-4F45-87A5-8267DA876663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9981E937-2854-E848-B9B1-4FEDF100AB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="680" windowWidth="14680" windowHeight="18440" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
+    <workbookView xWindow="20240" yWindow="620" windowWidth="18160" windowHeight="20980" xr2:uid="{2FED5107-BDBA-42C2-8B25-B9C3018C5C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="veneime13102025" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>legendiline muinasjutt</t>
   </si>
   <si>
-    <t>SUS 677***</t>
-  </si>
-  <si>
     <t>ERA, Vene 6, 406/20</t>
   </si>
   <si>
@@ -2121,6 +2118,9 @@
   </si>
   <si>
     <t>Tsvetkov Sergei Dimitrievich</t>
+  </si>
+  <si>
+    <t>677***</t>
   </si>
 </sst>
 </file>
@@ -3247,9 +3247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84DAE8B-405E-4655-89DF-BEE99C6D5E84}">
   <dimension ref="A1:AJ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA118" sqref="AA118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3287,120 +3287,120 @@
   <sheetData>
     <row r="1" spans="1:36" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE1" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="AF1" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE1" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>614</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3409,16 +3409,16 @@
         <v>36</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3456,27 +3456,27 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -3485,14 +3485,14 @@
         <v>63</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3530,27 +3530,27 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -3559,16 +3559,16 @@
         <v>99</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3606,55 +3606,55 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH4" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ4" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -3664,13 +3664,13 @@
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1" t="s">
@@ -3684,45 +3684,45 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH5" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ5" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3737,14 +3737,14 @@
         <v>28</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R6" s="1">
         <v>1949</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>1</v>
@@ -3762,48 +3762,48 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH6" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI6" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI6" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ6" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="350" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1">
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>588</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>589</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -3813,7 +3813,7 @@
         <v>55</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>1</v>
@@ -3840,48 +3840,48 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH7" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI7" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ7" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="1">
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -3891,7 +3891,7 @@
         <v>55</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>1</v>
@@ -3918,54 +3918,54 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1">
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>545</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>546</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3973,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>1</v>
@@ -4000,45 +4000,45 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI9" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ9" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C10" s="1">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4049,7 +4049,7 @@
         <v>55</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>1</v>
@@ -4076,27 +4076,27 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH10" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI10" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI10" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ10" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4105,16 +4105,16 @@
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -4154,27 +4154,27 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH11" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI11" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ11" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -4183,16 +4183,16 @@
         <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -4230,75 +4230,75 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH12" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI12" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI12" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ12" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C13" s="1">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R13" s="9">
         <v>13121</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
@@ -4312,45 +4312,45 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH13" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ13" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4361,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R14" s="9">
         <v>17724</v>
@@ -4376,7 +4376,7 @@
         <v>17727</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>1</v>
@@ -4394,64 +4394,64 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH14" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI14" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ14" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H15" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="L15" s="15" t="s">
         <v>582</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>583</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -4462,7 +4462,7 @@
         <v>23204</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>1</v>
@@ -4480,48 +4480,48 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH15" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI15" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI15" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ15" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="320" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>562</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>563</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4531,7 +4531,7 @@
         <v>55</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -4542,7 +4542,7 @@
         <v>23219</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>1</v>
@@ -4560,27 +4560,27 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH16" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI16" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI16" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="AJ16" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -4589,16 +4589,16 @@
         <v>25</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -4638,27 +4638,27 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH17" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ17" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -4667,16 +4667,16 @@
         <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4720,27 +4720,27 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH18" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ18" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="256" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -4749,16 +4749,16 @@
         <v>33</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -4798,27 +4798,27 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH19" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI19" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ19" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -4827,16 +4827,16 @@
         <v>39</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -4876,27 +4876,27 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH20" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI20" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AJ20" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ20" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -4905,16 +4905,16 @@
         <v>43</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -4954,27 +4954,27 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH21" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI21" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AJ21" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ21" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -4983,16 +4983,16 @@
         <v>46</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -5032,27 +5032,27 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH22" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI22" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -5061,16 +5061,16 @@
         <v>57</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -5116,27 +5116,27 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH23" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI23" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -5145,16 +5145,16 @@
         <v>60</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -5198,27 +5198,27 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH24" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI24" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ24" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -5227,16 +5227,16 @@
         <v>103</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -5270,13 +5270,13 @@
         <v>105</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>106</v>
+        <v>659</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AC25" s="21">
         <v>677</v>
@@ -5284,45 +5284,45 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH25" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI25" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>1</v>
@@ -5362,45 +5362,45 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH26" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AJ26" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>1</v>
@@ -5442,55 +5442,55 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH27" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI27" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AJ27" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -5500,13 +5500,13 @@
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
@@ -5522,45 +5522,45 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH28" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI28" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AJ28" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C29" s="1">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>1</v>
@@ -5600,45 +5600,45 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH29" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI29" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI29" s="1" t="s">
+      <c r="AJ29" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C30" s="1">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5649,7 +5649,7 @@
         <v>28</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>1</v>
@@ -5672,51 +5672,51 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC30" s="21"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH30" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI30" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI30" s="1" t="s">
+      <c r="AJ30" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C31" s="1">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -5727,7 +5727,7 @@
         <v>28</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>1</v>
@@ -5750,51 +5750,51 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC31" s="21"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH31" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI31" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ31" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C32" s="1">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -5805,7 +5805,7 @@
         <v>28</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>1</v>
@@ -5828,51 +5828,51 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC32" s="21"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH32" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI32" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI32" s="1" t="s">
+      <c r="AJ32" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ32" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C33" s="1">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -5883,7 +5883,7 @@
         <v>28</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>1</v>
@@ -5906,7 +5906,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC33" s="21">
         <v>671</v>
@@ -5914,45 +5914,45 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH33" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI33" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI33" s="1" t="s">
+      <c r="AJ33" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ33" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C34" s="1">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5963,7 +5963,7 @@
         <v>28</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>1</v>
@@ -5984,57 +5984,57 @@
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA34" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="AA34" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="AB34" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC34" s="21"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH34" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI34" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI34" s="1" t="s">
+      <c r="AJ34" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ34" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C35" s="1">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -6049,14 +6049,14 @@
         <v>28</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R35" s="1">
         <v>1941</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>1</v>
@@ -6068,57 +6068,57 @@
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC35" s="21"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG35" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AG35" s="1" t="s">
+      <c r="AH35" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AH35" s="1" t="s">
+      <c r="AI35" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI35" s="1" t="s">
+      <c r="AJ35" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ35" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C36" s="1">
         <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -6129,7 +6129,7 @@
         <v>28</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>1</v>
@@ -6158,45 +6158,45 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH36" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI36" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI36" s="1" t="s">
+      <c r="AJ36" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ36" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C37" s="1">
         <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -6207,7 +6207,7 @@
         <v>28</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>1</v>
@@ -6230,7 +6230,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC37" s="21">
         <v>325</v>
@@ -6238,45 +6238,45 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH37" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI37" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI37" s="1" t="s">
+      <c r="AJ37" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" s="1">
         <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -6287,7 +6287,7 @@
         <v>28</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>1</v>
@@ -6318,45 +6318,45 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH38" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI38" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI38" s="1" t="s">
+      <c r="AJ38" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ38" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C39" s="1">
         <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -6367,7 +6367,7 @@
         <v>28</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>1</v>
@@ -6390,51 +6390,51 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AC39" s="21"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH39" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI39" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI39" s="1" t="s">
+      <c r="AJ39" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ39" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H40" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -6449,14 +6449,14 @@
         <v>28</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R40" s="1">
         <v>1949</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>1</v>
@@ -6468,10 +6468,10 @@
       </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AB40" s="1">
         <v>328</v>
@@ -6480,48 +6480,48 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH40" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI40" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI40" s="1" t="s">
+      <c r="AJ40" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ40" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H41" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>566</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -6531,7 +6531,7 @@
         <v>55</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>1</v>
@@ -6560,48 +6560,48 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH41" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI41" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI41" s="1" t="s">
+      <c r="AJ41" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ41" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>566</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -6611,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>1</v>
@@ -6632,72 +6632,72 @@
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA42" s="1">
         <v>480</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AC42" s="21"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH42" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI42" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI42" s="1" t="s">
+      <c r="AJ42" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ42" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>571</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>1</v>
@@ -6723,67 +6723,67 @@
         <v>300</v>
       </c>
       <c r="AC43" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH43" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI43" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI43" s="1" t="s">
+      <c r="AJ43" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ43" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="1">
         <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H44" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="I44" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="J44" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="K44" s="15" t="s">
         <v>592</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>593</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>1</v>
@@ -6812,48 +6812,48 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH44" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI44" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI44" s="1" t="s">
+      <c r="AJ44" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ44" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C45" s="1">
         <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -6863,7 +6863,7 @@
         <v>55</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -6872,7 +6872,7 @@
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>1</v>
@@ -6884,66 +6884,66 @@
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA45" s="1">
         <v>480</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AC45" s="21"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH45" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI45" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI45" s="1" t="s">
+      <c r="AJ45" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ45" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C46" s="1">
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="J46" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="K46" s="15" t="s">
         <v>548</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>549</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -6951,7 +6951,7 @@
         <v>55</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>1</v>
@@ -6974,60 +6974,60 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC46" s="21"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH46" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI46" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI46" s="1" t="s">
+      <c r="AJ46" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ46" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C47" s="1">
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="J47" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="K47" s="15" t="s">
         <v>553</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>554</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -7035,7 +7035,7 @@
         <v>55</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -7044,13 +7044,13 @@
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
@@ -7066,45 +7066,45 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH47" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI47" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI47" s="1" t="s">
+      <c r="AJ47" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ47" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C48" s="1">
         <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -7115,7 +7115,7 @@
         <v>55</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>1</v>
@@ -7144,45 +7144,45 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH48" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI48" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI48" s="1" t="s">
+      <c r="AJ48" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ48" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="1">
         <v>32</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -7193,7 +7193,7 @@
         <v>55</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>1</v>
@@ -7222,27 +7222,27 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH49" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI49" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI49" s="1" t="s">
+      <c r="AJ49" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ49" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -7251,16 +7251,16 @@
         <v>6</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -7302,27 +7302,27 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH50" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI50" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI50" s="1" t="s">
+      <c r="AJ50" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ50" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -7331,16 +7331,16 @@
         <v>9</v>
       </c>
       <c r="E51" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -7382,27 +7382,27 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH51" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI51" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI51" s="1" t="s">
+      <c r="AJ51" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ51" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -7411,16 +7411,16 @@
         <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -7462,27 +7462,27 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH52" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI52" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI52" s="1" t="s">
+      <c r="AJ52" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ52" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -7491,16 +7491,16 @@
         <v>15</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -7536,10 +7536,10 @@
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA53" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="AB53" s="1">
         <v>410</v>
@@ -7548,27 +7548,27 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH53" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI53" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI53" s="1" t="s">
+      <c r="AJ53" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ53" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -7577,16 +7577,16 @@
         <v>74</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -7628,27 +7628,27 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH54" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI54" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI54" s="1" t="s">
+      <c r="AJ54" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ54" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -7657,16 +7657,16 @@
         <v>71</v>
       </c>
       <c r="E55" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>1</v>
@@ -7708,27 +7708,27 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH55" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI55" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI55" s="1" t="s">
+      <c r="AJ55" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ55" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -7737,16 +7737,16 @@
         <v>82</v>
       </c>
       <c r="E56" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -7786,27 +7786,27 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH56" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI56" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI56" s="1" t="s">
+      <c r="AJ56" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ56" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -7815,16 +7815,16 @@
         <v>78</v>
       </c>
       <c r="E57" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7864,27 +7864,27 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH57" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI57" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI57" s="1" t="s">
+      <c r="AJ57" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ57" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -7893,16 +7893,16 @@
         <v>67</v>
       </c>
       <c r="E58" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -7944,27 +7944,27 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH58" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI58" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI58" s="1" t="s">
+      <c r="AJ58" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ58" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
@@ -7973,16 +7973,16 @@
         <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -8022,27 +8022,27 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH59" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI59" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI59" s="1" t="s">
+      <c r="AJ59" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ59" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -8051,16 +8051,16 @@
         <v>88</v>
       </c>
       <c r="E60" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -8100,27 +8100,27 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH60" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI60" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI60" s="1" t="s">
+      <c r="AJ60" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ60" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -8129,16 +8129,16 @@
         <v>93</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -8178,27 +8178,27 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH61" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI61" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI61" s="1" t="s">
+      <c r="AJ61" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ61" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -8207,16 +8207,16 @@
         <v>95</v>
       </c>
       <c r="E62" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -8256,27 +8256,27 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH62" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI62" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI62" s="1" t="s">
+      <c r="AJ62" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ62" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:36" ht="256" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -8285,16 +8285,16 @@
         <v>97</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -8326,10 +8326,10 @@
       </c>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA63" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="AA63" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="AB63" s="1">
         <v>307</v>
@@ -8340,55 +8340,55 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH63" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI63" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI63" s="1" t="s">
+      <c r="AJ63" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ63" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C64" s="1">
         <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>1</v>
@@ -8410,10 +8410,10 @@
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AB64" s="1">
         <v>480</v>
@@ -8422,55 +8422,55 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG64" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH64" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI64" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI64" s="1" t="s">
+      <c r="AJ64" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ64" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="N65" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>1</v>
@@ -8500,55 +8500,55 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH65" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI65" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI65" s="1" t="s">
+      <c r="AJ65" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ65" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="66" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C66" s="1">
         <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -8558,16 +8558,16 @@
       </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>2</v>
@@ -8582,45 +8582,45 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH66" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI66" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI66" s="1" t="s">
+      <c r="AJ66" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ66" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C67" s="1">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -8631,7 +8631,7 @@
         <v>28</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="S67" s="1"/>
       <c r="T67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>1</v>
@@ -8654,51 +8654,51 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC67" s="21"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH67" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI67" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI67" s="1" t="s">
+      <c r="AJ67" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ67" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C68" s="1">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -8709,20 +8709,20 @@
         <v>28</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R68" s="9">
         <v>13317</v>
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U68" s="1" t="s">
         <v>17</v>
@@ -8736,57 +8736,57 @@
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC68" s="21"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH68" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI68" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI68" s="1" t="s">
+      <c r="AJ68" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ68" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" s="1">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -8797,7 +8797,7 @@
         <v>28</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U69" s="1" t="s">
         <v>1</v>
@@ -8820,51 +8820,51 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC69" s="21"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH69" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI69" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI69" s="1" t="s">
+      <c r="AJ69" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ69" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="70" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C70" s="1">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E70" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H70" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -8872,16 +8872,16 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R70" s="9">
         <v>14029</v>
@@ -8890,7 +8890,7 @@
         <v>14117</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>1</v>
@@ -8904,51 +8904,51 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC70" s="21"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH70" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI70" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI70" s="1" t="s">
+      <c r="AJ70" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ70" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C71" s="1">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H71" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -8956,16 +8956,16 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R71" s="9">
         <v>14029</v>
@@ -8974,7 +8974,7 @@
         <v>14117</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>1</v>
@@ -8994,45 +8994,45 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH71" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI71" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI71" s="1" t="s">
+      <c r="AJ71" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ71" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="72" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C72" s="1">
         <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E72" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H72" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -9040,10 +9040,10 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -9054,7 +9054,7 @@
         <v>14117</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U72" s="1" t="s">
         <v>1</v>
@@ -9068,51 +9068,51 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC72" s="21"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH72" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI72" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI72" s="1" t="s">
+      <c r="AJ72" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ72" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="73" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C73" s="1">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E73" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H73" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -9120,10 +9120,10 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -9134,7 +9134,7 @@
         <v>14117</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>1</v>
@@ -9148,51 +9148,51 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC73" s="21"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH73" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI73" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI73" s="1" t="s">
+      <c r="AJ73" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ73" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C74" s="1">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -9200,10 +9200,10 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -9214,7 +9214,7 @@
         <v>14117</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U74" s="1" t="s">
         <v>1</v>
@@ -9226,57 +9226,57 @@
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA74" s="1">
         <v>480</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AC74" s="21"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH74" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI74" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI74" s="1" t="s">
+      <c r="AJ74" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ74" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="75" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C75" s="1">
         <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E75" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H75" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -9284,16 +9284,16 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R75" s="9">
         <v>14029</v>
@@ -9302,13 +9302,13 @@
         <v>14117</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1" t="s">
@@ -9324,45 +9324,45 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH75" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI75" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI75" s="1" t="s">
+      <c r="AJ75" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ75" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C76" s="1">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -9370,10 +9370,10 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -9384,7 +9384,7 @@
         <v>14117</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U76" s="1" t="s">
         <v>1</v>
@@ -9404,45 +9404,45 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH76" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI76" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI76" s="1" t="s">
+      <c r="AJ76" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ76" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C77" s="1">
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E77" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -9464,7 +9464,7 @@
         <v>14117</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U77" s="1" t="s">
         <v>1</v>
@@ -9478,51 +9478,51 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC77" s="21"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG77" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH77" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI77" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI77" s="1" t="s">
+      <c r="AJ77" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ77" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C78" s="1">
         <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -9530,16 +9530,16 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R78" s="9">
         <v>14029</v>
@@ -9548,7 +9548,7 @@
         <v>14117</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U78" s="1" t="s">
         <v>1</v>
@@ -9568,45 +9568,45 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH78" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI78" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI78" s="1" t="s">
+      <c r="AJ78" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ78" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C79" s="1">
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E79" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H79" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -9614,16 +9614,16 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>55</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R79" s="9">
         <v>14029</v>
@@ -9632,7 +9632,7 @@
         <v>14117</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>1</v>
@@ -9644,57 +9644,57 @@
       </c>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA79" s="1">
         <v>480</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AC79" s="21"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG79" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH79" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI79" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI79" s="1" t="s">
+      <c r="AJ79" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ79" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="80" spans="1:36" ht="192" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C80" s="1">
         <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H80" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -9705,7 +9705,7 @@
         <v>28</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U80" s="1" t="s">
         <v>1</v>
@@ -9726,10 +9726,10 @@
       </c>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA80" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="AA80" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="AB80" s="1">
         <v>307</v>
@@ -9740,45 +9740,45 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG80" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH80" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI80" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI80" s="1" t="s">
+      <c r="AJ80" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ80" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C81" s="1">
         <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E81" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -9789,7 +9789,7 @@
         <v>28</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -9798,7 +9798,7 @@
       </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>1</v>
@@ -9809,16 +9809,16 @@
         <v>2</v>
       </c>
       <c r="Y81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z81" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AA81" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB81" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="Z81" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="AA81" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="AC81" s="21">
         <v>1000</v>
@@ -9828,45 +9828,45 @@
       </c>
       <c r="AE81" s="1"/>
       <c r="AF81" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG81" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH81" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI81" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI81" s="1" t="s">
+      <c r="AJ81" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ81" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C82" s="1">
         <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E82" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G82" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H82" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -9877,7 +9877,7 @@
         <v>28</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>1</v>
@@ -9898,57 +9898,57 @@
       </c>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA82" s="1">
         <v>480</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AC82" s="21"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH82" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI82" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI82" s="1" t="s">
+      <c r="AJ82" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ82" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C83" s="1">
         <v>13</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E83" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -9959,7 +9959,7 @@
         <v>28</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -9968,7 +9968,7 @@
       </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U83" s="1" t="s">
         <v>1</v>
@@ -9988,45 +9988,45 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH83" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI83" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI83" s="1" t="s">
+      <c r="AJ83" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ83" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="84" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C84" s="1">
         <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H84" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -10037,7 +10037,7 @@
         <v>28</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>1</v>
@@ -10058,10 +10058,10 @@
       </c>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB84" s="1">
         <v>707</v>
@@ -10070,45 +10070,45 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH84" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI84" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI84" s="1" t="s">
+      <c r="AJ84" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ84" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C85" s="1">
         <v>13</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H85" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -10119,7 +10119,7 @@
         <v>28</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>1</v>
@@ -10148,45 +10148,45 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH85" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI85" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI85" s="1" t="s">
+      <c r="AJ85" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ85" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C86" s="1">
         <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G86" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -10197,7 +10197,7 @@
         <v>28</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U86" s="1" t="s">
         <v>1</v>
@@ -10228,45 +10228,45 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH86" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI86" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI86" s="1" t="s">
+      <c r="AJ86" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ86" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C87" s="1">
         <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E87" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H87" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -10277,7 +10277,7 @@
         <v>28</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U87" s="1" t="s">
         <v>1</v>
@@ -10306,45 +10306,45 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH87" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI87" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI87" s="1" t="s">
+      <c r="AJ87" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ87" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C88" s="1">
         <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G88" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -10355,7 +10355,7 @@
         <v>28</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U88" s="1" t="s">
         <v>1</v>
@@ -10380,7 +10380,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AC88" s="21">
         <v>307</v>
@@ -10388,45 +10388,45 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH88" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI88" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI88" s="1" t="s">
+      <c r="AJ88" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ88" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C89" s="1">
         <v>13</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E89" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="1"/>
@@ -10437,7 +10437,7 @@
         <v>28</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="S89" s="1"/>
       <c r="T89" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U89" s="1" t="s">
         <v>1</v>
@@ -10466,45 +10466,45 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH89" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI89" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI89" s="1" t="s">
+      <c r="AJ89" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ89" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:36" ht="350" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C90" s="1">
         <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F90" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H90" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I90" s="16"/>
       <c r="J90" s="1"/>
@@ -10515,7 +10515,7 @@
         <v>28</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U90" s="1" t="s">
         <v>1</v>
@@ -10544,51 +10544,51 @@
         <v>580</v>
       </c>
       <c r="AD90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE90" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AE90" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="AF90" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH90" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI90" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI90" s="1" t="s">
+      <c r="AJ90" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ90" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C91" s="1">
         <v>13</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G91" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H91" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I91" s="16"/>
       <c r="J91" s="1"/>
@@ -10599,7 +10599,7 @@
         <v>28</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U91" s="1" t="s">
         <v>1</v>
@@ -10622,51 +10622,51 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC91" s="21"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH91" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI91" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI91" s="1" t="s">
+      <c r="AJ91" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ91" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:36" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C92" s="1">
         <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="1"/>
@@ -10677,7 +10677,7 @@
         <v>28</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -10698,51 +10698,51 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AC92" s="21"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH92" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI92" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI92" s="1" t="s">
+      <c r="AJ92" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ92" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:36" ht="128" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C93" s="1">
         <v>13</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H93" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I93" s="16"/>
       <c r="J93" s="16"/>
@@ -10753,7 +10753,7 @@
         <v>28</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="S93" s="1"/>
       <c r="T93" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>1</v>
@@ -10782,45 +10782,45 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH93" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI93" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI93" s="1" t="s">
+      <c r="AJ93" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ93" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="94" spans="1:36" ht="96" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C94" s="1">
         <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H94" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
@@ -10831,7 +10831,7 @@
         <v>28</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="S94" s="1"/>
       <c r="T94" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U94" s="1" t="s">
         <v>1</v>
@@ -10860,45 +10860,45 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH94" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI94" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI94" s="1" t="s">
+      <c r="AJ94" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ94" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="95" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C95" s="1">
         <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H95" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I95" s="16"/>
       <c r="J95" s="16"/>
@@ -10909,7 +10909,7 @@
         <v>28</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="S95" s="1"/>
       <c r="T95" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U95" s="1" t="s">
         <v>1</v>
@@ -10938,45 +10938,45 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH95" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI95" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI95" s="1" t="s">
+      <c r="AJ95" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ95" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C96" s="1">
         <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F96" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H96" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I96" s="16"/>
       <c r="J96" s="1"/>
@@ -10987,7 +10987,7 @@
         <v>28</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="S96" s="1"/>
       <c r="T96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U96" s="1" t="s">
         <v>1</v>
@@ -11016,45 +11016,45 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH96" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI96" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI96" s="1" t="s">
+      <c r="AJ96" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ96" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="97" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C97" s="1">
         <v>13</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H97" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I97" s="16"/>
       <c r="J97" s="1"/>
@@ -11065,7 +11065,7 @@
         <v>28</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U97" s="1" t="s">
         <v>1</v>
@@ -11094,45 +11094,45 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH97" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI97" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI97" s="1" t="s">
+      <c r="AJ97" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ97" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C98" s="1">
         <v>13</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E98" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F98" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G98" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H98" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I98" s="16"/>
       <c r="J98" s="1"/>
@@ -11143,7 +11143,7 @@
         <v>28</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="S98" s="1"/>
       <c r="T98" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U98" s="1" t="s">
         <v>1</v>
@@ -11174,69 +11174,69 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH98" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI98" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI98" s="1" t="s">
+      <c r="AJ98" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ98" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="99" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C99" s="1">
         <v>7</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E99" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q99" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="R99" s="1">
         <v>1935</v>
       </c>
       <c r="S99" s="1"/>
       <c r="T99" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U99" s="1" t="s">
         <v>1</v>
@@ -11256,45 +11256,45 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH99" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI99" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI99" s="1" t="s">
+      <c r="AJ99" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ99" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="100" spans="1:36" ht="365" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H100" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R100" s="9">
         <v>17724</v>
@@ -11320,7 +11320,7 @@
         <v>17727</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>1</v>
@@ -11340,45 +11340,45 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH100" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI100" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI100" s="1" t="s">
+      <c r="AJ100" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ100" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E101" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H101" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -11400,13 +11400,13 @@
         <v>18088</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1" t="s">
@@ -11422,54 +11422,54 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH101" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI101" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI101" s="1" t="s">
+      <c r="AJ101" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ101" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C102" s="1">
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H102" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="I102" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="J102" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="K102" s="15" t="s">
         <v>576</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>577</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -11477,7 +11477,7 @@
         <v>55</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -11488,7 +11488,7 @@
         <v>23207</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>1</v>
@@ -11505,7 +11505,7 @@
         <v>552</v>
       </c>
       <c r="AC102" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AD102" s="1">
         <v>554</v>
@@ -11514,45 +11514,45 @@
         <v>301</v>
       </c>
       <c r="AF102" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH102" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI102" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI102" s="1" t="s">
+      <c r="AJ102" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ102" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C103" s="1">
         <v>32</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -11563,7 +11563,7 @@
         <v>55</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="S103" s="1"/>
       <c r="T103" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>1</v>
@@ -11592,64 +11592,64 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH103" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI103" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI103" s="1" t="s">
+      <c r="AJ103" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ103" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="144" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C104" s="1">
         <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H104" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="I104" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="I104" s="15" t="s">
+      <c r="J104" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="J104" s="15" t="s">
+      <c r="K104" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="L104" s="15" t="s">
         <v>582</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>583</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -11660,7 +11660,7 @@
         <v>23204</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>1</v>
@@ -11673,7 +11673,7 @@
         <v>2</v>
       </c>
       <c r="Y104" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
@@ -11688,48 +11688,48 @@
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH104" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI104" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI104" s="1" t="s">
+      <c r="AJ104" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ104" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="105" spans="1:36" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C105" s="1">
         <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H105" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -11739,7 +11739,7 @@
         <v>55</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="S105" s="1"/>
       <c r="T105" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>1</v>
@@ -11768,48 +11768,48 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH105" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI105" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI105" s="1" t="s">
+      <c r="AJ105" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ105" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="160" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C106" s="1">
         <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -11819,7 +11819,7 @@
         <v>55</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -11828,13 +11828,13 @@
       </c>
       <c r="S106" s="1"/>
       <c r="T106" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1" t="s">
@@ -11844,56 +11844,56 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AC106" s="21"/>
       <c r="AD106" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AE106" s="1"/>
       <c r="AF106" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH106" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI106" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI106" s="1" t="s">
+      <c r="AJ106" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ106" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="107" spans="1:36" ht="365" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C107" s="1">
         <v>13</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H107" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
@@ -11903,7 +11903,7 @@
         <v>55</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -11912,7 +11912,7 @@
       </c>
       <c r="S107" s="1"/>
       <c r="T107" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U107" s="1" t="s">
         <v>1</v>
@@ -11929,54 +11929,54 @@
         <v>552</v>
       </c>
       <c r="AC107" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AD107" s="1">
         <v>554</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF107" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH107" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI107" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI107" s="1" t="s">
+      <c r="AJ107" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ107" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="208" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C108" s="1">
         <v>13</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E108" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G108" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H108" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -11987,7 +11987,7 @@
         <v>28</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="S108" s="1"/>
       <c r="T108" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U108" s="1" t="s">
         <v>1</v>
@@ -12016,48 +12016,48 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH108" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI108" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI108" s="1" t="s">
+      <c r="AJ108" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ108" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H109" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="I109" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>563</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="18"/>
@@ -12067,7 +12067,7 @@
         <v>55</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -12078,13 +12078,13 @@
         <v>23219</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1" t="s">
@@ -12100,60 +12100,60 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG109" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH109" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI109" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI109" s="1" t="s">
+      <c r="AJ109" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ109" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="110" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C110" s="1">
         <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I110" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="I110" s="16" t="s">
+      <c r="J110" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O110" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="S110" s="1"/>
       <c r="T110" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U110" s="1" t="s">
         <v>1</v>
@@ -12174,64 +12174,64 @@
       </c>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA110" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AC110" s="21"/>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="AG110" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AG110" s="1" t="s">
+      <c r="AH110" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AH110" s="1" t="s">
+      <c r="AI110" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI110" s="1" t="s">
+      <c r="AJ110" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ110" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="288" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C111" s="1">
         <v>25</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="I111" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="I111" s="16" t="s">
+      <c r="J111" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -12239,7 +12239,7 @@
         <v>55</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -12250,7 +12250,7 @@
         <v>24295</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>1</v>
@@ -12264,7 +12264,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AC111" s="21">
         <v>707</v>
@@ -12272,51 +12272,51 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG111" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH111" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI111" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI111" s="1" t="s">
+      <c r="AJ111" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ111" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="396" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C112" s="3">
         <v>29</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H112" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="I112" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="I112" s="16" t="s">
+      <c r="J112" s="16" t="s">
         <v>536</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>537</v>
       </c>
       <c r="K112" s="16"/>
       <c r="L112" s="3"/>
@@ -12325,7 +12325,7 @@
         <v>55</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
@@ -12336,7 +12336,7 @@
         <v>24309</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U112" s="3" t="s">
         <v>1</v>
@@ -12348,10 +12348,10 @@
       </c>
       <c r="Y112" s="3"/>
       <c r="Z112" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB112" s="1">
         <v>707</v>
@@ -12360,45 +12360,45 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG112" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH112" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI112" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI112" s="1" t="s">
+      <c r="AJ112" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ112" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:36" ht="112" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C113" s="1">
         <v>13</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E113" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>420</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H113" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -12409,7 +12409,7 @@
         <v>28</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="S113" s="1"/>
       <c r="T113" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U113" s="1" t="s">
         <v>1</v>
@@ -12437,24 +12437,24 @@
         <v>737</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG113" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AH113" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI113" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AI113" s="1" t="s">
+      <c r="AJ113" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="AJ113" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.2">
